--- a/Technology/ON Semiconductor.xlsx
+++ b/Technology/ON Semiconductor.xlsx
@@ -5,29 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Still Researching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D615009A-C90B-7E4E-98F5-B355B19566E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB178EF0-C99D-B643-9551-2AD0EADF4539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$C$3:$Y$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$C$106:$Y$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$C$19:$Y$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$C$3:$Y$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$C$106:$Y$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$C$19:$Y$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -526,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -868,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -910,12 +900,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -930,18 +914,6 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -964,12 +936,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1009,6 +975,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2227,13 +2223,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2561,10 +2557,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB88" sqref="AB88"/>
+      <selection pane="bottomRight" activeCell="AD100" sqref="AD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2650,19 +2646,19 @@
       <c r="Y1" s="8">
         <v>2022</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="25">
         <v>2023</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="25">
         <v>2024</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="25">
         <v>2025</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="25">
         <v>2026</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="25">
         <v>2027</v>
       </c>
     </row>
@@ -2832,19 +2828,19 @@
       <c r="Y3" s="1">
         <v>8326200000</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="26">
         <v>7912000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="26">
         <v>8326200000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="26">
         <v>8564000000</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="26">
         <v>9346000000</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="26">
         <v>9672000000</v>
       </c>
       <c r="AE3" s="18" t="s">
@@ -2878,7 +2874,7 @@
         <v>-0.10711345298863828</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AE4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AD4" si="0">(F3/E3)-1</f>
         <v>-1.4200092208390913E-2</v>
       </c>
       <c r="G4" s="15">
@@ -3345,7 +3341,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:Z9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:Y9" si="1">C8/C3</f>
         <v>3.3367086166160374E-2</v>
       </c>
       <c r="D9" s="15">
@@ -3723,7 +3719,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:Z13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:Y13" si="2">C12/C3</f>
         <v>0.16080813925454457</v>
       </c>
       <c r="D13" s="15">
@@ -4079,19 +4075,19 @@
       <c r="Y16" s="1">
         <v>5966200000</v>
       </c>
-      <c r="AE16" s="29">
+      <c r="AE16" s="27">
         <f>(Y35+X35+W35+V35+U35)/5</f>
         <v>9.6862817716708467E-3</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AF16" s="28">
         <f>AG100/Y3</f>
         <v>4.0664408733876201</v>
       </c>
-      <c r="AG16" s="30">
+      <c r="AG16" s="28">
         <f>AG100/Y28</f>
         <v>17.799390179791821</v>
       </c>
-      <c r="AH16" s="31">
+      <c r="AH16" s="29">
         <f>AG100/Y106</f>
         <v>20.796019900497512</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>94900000</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4248,6 +4244,9 @@
       </c>
       <c r="Y18" s="1">
         <v>551800000</v>
+      </c>
+      <c r="AE18" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4325,6 +4324,10 @@
       </c>
       <c r="Y19" s="10">
         <v>3007300000</v>
+      </c>
+      <c r="AE19" s="69">
+        <f>Y40-Y56-Y61</f>
+        <v>-311700000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4348,7 @@
         <v>-1.0267601146862058</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Z20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:Y20" si="3">(F19/E19)-1</f>
         <v>-3.6785714285714284</v>
       </c>
       <c r="G20" s="15">
@@ -5063,7 +5066,7 @@
         <v>-0.82932403175366853</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Z29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Y29" si="4">(F28/E28)-1</f>
         <v>0.17477096546863979</v>
       </c>
       <c r="G29" s="15">
@@ -5542,7 +5545,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Z35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Y35" si="5">(D34-C34)/C34</f>
         <v>2.8797415458937197E-2</v>
       </c>
       <c r="E35" s="22">
@@ -9025,7 +9028,7 @@
         <v>105</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Z80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:Y80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -9276,10 +9279,10 @@
       <c r="Y82" s="1">
         <v>-47800000</v>
       </c>
-      <c r="AF82" s="32" t="s">
+      <c r="AF82" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AG82" s="33"/>
+      <c r="AG82" s="63"/>
     </row>
     <row r="83" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -9357,10 +9360,10 @@
       <c r="Y83" s="1">
         <v>-235200000</v>
       </c>
-      <c r="AF83" s="34" t="s">
+      <c r="AF83" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AG83" s="35"/>
+      <c r="AG83" s="65"/>
     </row>
     <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9438,10 +9441,10 @@
       <c r="Y84" s="1">
         <v>38200000</v>
       </c>
-      <c r="AF84" s="58" t="s">
+      <c r="AF84" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="AG84" s="59">
+      <c r="AG84" s="51">
         <f>Y17</f>
         <v>94900000</v>
       </c>
@@ -9522,10 +9525,10 @@
       <c r="Y85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF85" s="58" t="s">
+      <c r="AF85" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AG85" s="59">
+      <c r="AG85" s="51">
         <f>Y56</f>
         <v>162000000</v>
       </c>
@@ -9606,10 +9609,10 @@
       <c r="Y86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF86" s="58" t="s">
+      <c r="AF86" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AG86" s="59">
+      <c r="AG86" s="51">
         <f>Y61</f>
         <v>3068700000</v>
       </c>
@@ -9690,10 +9693,10 @@
       <c r="Y87" s="10">
         <v>2633100000</v>
       </c>
-      <c r="AF87" s="60" t="s">
+      <c r="AF87" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="AG87" s="61">
+      <c r="AG87" s="53">
         <f>AG84/(AG85+AG86)</f>
         <v>2.9374438976073298E-2</v>
       </c>
@@ -9774,10 +9777,10 @@
       <c r="Y88" s="1">
         <v>-1005000000</v>
       </c>
-      <c r="AF88" s="58" t="s">
+      <c r="AF88" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="AG88" s="59">
+      <c r="AG88" s="51">
         <f>Y27</f>
         <v>458400000</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>106</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Z89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Y89" si="7">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
@@ -9882,10 +9885,10 @@
         <f t="shared" si="7"/>
         <v>0.12070332204366938</v>
       </c>
-      <c r="AF89" s="58" t="s">
+      <c r="AF89" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AG89" s="59">
+      <c r="AG89" s="51">
         <f>Y25</f>
         <v>2362200000</v>
       </c>
@@ -9968,10 +9971,10 @@
       <c r="Y90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF90" s="60" t="s">
+      <c r="AF90" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="AG90" s="61">
+      <c r="AG90" s="53">
         <f>AG88/AG89</f>
         <v>0.19405638811277623</v>
       </c>
@@ -10052,10 +10055,10 @@
       <c r="Y91" s="1">
         <v>-18000000</v>
       </c>
-      <c r="AF91" s="62" t="s">
+      <c r="AF91" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="AG91" s="63">
+      <c r="AG91" s="55">
         <f>AG87*(1-AG90)</f>
         <v>2.3674141445537356E-2</v>
       </c>
@@ -10136,10 +10139,10 @@
       <c r="Y92" s="1">
         <v>28800000</v>
       </c>
-      <c r="AF92" s="34" t="s">
+      <c r="AF92" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AG92" s="35"/>
+      <c r="AG92" s="65"/>
     </row>
     <row r="93" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -10217,10 +10220,10 @@
       <c r="Y93" s="1">
         <v>288800000</v>
       </c>
-      <c r="AF93" s="58" t="s">
+      <c r="AF93" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AG93" s="64">
+      <c r="AG93" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10300,10 +10303,10 @@
       <c r="Y94" s="10">
         <v>-705400000</v>
       </c>
-      <c r="AF94" s="66" t="s">
+      <c r="AF94" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="AG94" s="67">
+      <c r="AG94" s="59">
         <v>1.75</v>
       </c>
     </row>
@@ -10383,10 +10386,10 @@
       <c r="Y95" s="1">
         <v>-534400000</v>
       </c>
-      <c r="AF95" s="58" t="s">
+      <c r="AF95" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="AG95" s="64">
+      <c r="AG95" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10466,10 +10469,10 @@
       <c r="Y96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF96" s="62" t="s">
+      <c r="AF96" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="AG96" s="63">
+      <c r="AG96" s="55">
         <f>(AG93)+((AG94)*(AG95-AG93))</f>
         <v>0.1162875</v>
       </c>
@@ -10550,10 +10553,10 @@
       <c r="Y97" s="1">
         <v>-259800000</v>
       </c>
-      <c r="AF97" s="34" t="s">
+      <c r="AF97" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AG97" s="35"/>
+      <c r="AG97" s="65"/>
     </row>
     <row r="98" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -10631,10 +10634,10 @@
       <c r="Y98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF98" s="58" t="s">
+      <c r="AF98" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="AG98" s="59">
+      <c r="AG98" s="51">
         <f>AG85+AG86</f>
         <v>3230700000</v>
       </c>
@@ -10715,10 +10718,10 @@
       <c r="Y99" s="1">
         <v>424200000</v>
       </c>
-      <c r="AF99" s="60" t="s">
+      <c r="AF99" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AG99" s="61">
+      <c r="AG99" s="53">
         <f>AG98/AG102</f>
         <v>8.7107393896254118E-2</v>
       </c>
@@ -10799,10 +10802,10 @@
       <c r="Y100" s="10">
         <v>-370000000</v>
       </c>
-      <c r="AF100" s="66" t="s">
+      <c r="AF100" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="AG100" s="51">
+      <c r="AG100" s="43">
         <v>33858000000</v>
       </c>
     </row>
@@ -10882,10 +10885,10 @@
       <c r="Y101" s="1">
         <v>-2400000</v>
       </c>
-      <c r="AF101" s="60" t="s">
+      <c r="AF101" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="AG101" s="61">
+      <c r="AG101" s="53">
         <f>AG100/AG102</f>
         <v>0.9128926061037459</v>
       </c>
@@ -10966,10 +10969,10 @@
       <c r="Y102" s="10">
         <v>1555300000</v>
       </c>
-      <c r="AF102" s="62" t="s">
+      <c r="AF102" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AG102" s="65">
+      <c r="AG102" s="57">
         <f>AG98+AG100</f>
         <v>37088700000</v>
       </c>
@@ -11050,10 +11053,10 @@
       <c r="Y103" s="1">
         <v>1377700000</v>
       </c>
-      <c r="AF103" s="34" t="s">
+      <c r="AF103" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AG103" s="35"/>
+      <c r="AG103" s="65"/>
     </row>
     <row r="104" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11131,10 +11134,10 @@
       <c r="Y104" s="11">
         <v>2933000000</v>
       </c>
-      <c r="AF104" s="25" t="s">
+      <c r="AF104" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AG104" s="26">
+      <c r="AG104" s="24">
         <f>(AG99*AG91)+(AG101*AG96)</f>
         <v>0.10822019169634141</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>2.0780141843971629</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:Z105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:Y105" si="8">(H106/G106)-1</f>
         <v>-4.3479262672811059</v>
       </c>
       <c r="I105" s="15">
@@ -11242,10 +11245,10 @@
       <c r="AC105" s="15"/>
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
-      <c r="AF105" s="23" t="s">
+      <c r="AF105" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="AG105" s="24"/>
+      <c r="AG105" s="67"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
@@ -11329,33 +11332,33 @@
       <c r="Y106" s="1">
         <v>1628100000</v>
       </c>
-      <c r="Z106" s="36">
+      <c r="Z106" s="30">
         <f>Y106*(1+$AG$106)</f>
         <v>1679339051.1765733</v>
       </c>
-      <c r="AA106" s="36">
+      <c r="AA106" s="30">
         <f t="shared" ref="AA106:AD106" si="9">Z106*(1+$AG$106)</f>
         <v>1732190681.6575353</v>
       </c>
-      <c r="AB106" s="36">
+      <c r="AB106" s="30">
         <f t="shared" si="9"/>
         <v>1786705642.0316117</v>
       </c>
-      <c r="AC106" s="36">
+      <c r="AC106" s="30">
         <f t="shared" si="9"/>
         <v>1842936280.0940955</v>
       </c>
-      <c r="AD106" s="36">
+      <c r="AD106" s="30">
         <f t="shared" si="9"/>
         <v>1900936591.1136303</v>
       </c>
-      <c r="AE106" s="37" t="s">
+      <c r="AE106" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AF106" s="38" t="s">
+      <c r="AF106" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AG106" s="39">
+      <c r="AG106" s="33">
         <f>(SUM(Z4:AD4)/5)</f>
         <v>3.1471685508613192E-2</v>
       </c>
@@ -11386,138 +11389,138 @@
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
-      <c r="Z107" s="37"/>
-      <c r="AA107" s="37"/>
-      <c r="AB107" s="37"/>
-      <c r="AC107" s="37"/>
-      <c r="AD107" s="40">
+      <c r="Z107" s="31"/>
+      <c r="AA107" s="31"/>
+      <c r="AB107" s="31"/>
+      <c r="AC107" s="31"/>
+      <c r="AD107" s="34">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
         <v>23413308311.054165</v>
       </c>
-      <c r="AE107" s="41" t="s">
+      <c r="AE107" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="AF107" s="42" t="s">
+      <c r="AF107" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="AG107" s="43">
+      <c r="AG107" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="40">
+      <c r="Z108" s="34">
         <f t="shared" ref="Z108:AB108" si="10">Z107+Z106</f>
         <v>1679339051.1765733</v>
       </c>
-      <c r="AA108" s="40">
+      <c r="AA108" s="34">
         <f t="shared" si="10"/>
         <v>1732190681.6575353</v>
       </c>
-      <c r="AB108" s="40">
+      <c r="AB108" s="34">
         <f t="shared" si="10"/>
         <v>1786705642.0316117</v>
       </c>
-      <c r="AC108" s="40">
+      <c r="AC108" s="34">
         <f>AC107+AC106</f>
         <v>1842936280.0940955</v>
       </c>
-      <c r="AD108" s="40">
+      <c r="AD108" s="34">
         <f>AD107+AD106</f>
         <v>25314244902.167793</v>
       </c>
-      <c r="AE108" s="41" t="s">
+      <c r="AE108" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AF108" s="44" t="s">
+      <c r="AF108" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="AG108" s="45">
+      <c r="AG108" s="39">
         <f>AG104</f>
         <v>0.10822019169634141</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="46" t="s">
+      <c r="Z109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AA109" s="47"/>
+      <c r="AA109" s="61"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="48" t="s">
+      <c r="Z110" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AA110" s="49">
+      <c r="AA110" s="41">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
         <v>20604090681.337093</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="48" t="s">
+      <c r="Z111" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="AA111" s="49">
+      <c r="AA111" s="41">
         <f>Y40</f>
         <v>2919000000</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="48" t="s">
+      <c r="Z112" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AA112" s="49">
+      <c r="AA112" s="41">
         <f>AG98</f>
         <v>3230700000</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="48" t="s">
+      <c r="Z113" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AA113" s="49">
+      <c r="AA113" s="41">
         <f>AA110+AA111-AA112</f>
         <v>20292390681.337093</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="50" t="s">
+      <c r="Z114" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="AA114" s="51">
-        <f>Y34</f>
-        <v>448200000</v>
+      <c r="AA114" s="68">
+        <f>Y34*(1+(5*AE16))</f>
+        <v>469906957.45031434</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="52" t="s">
+      <c r="Z115" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AA115" s="53">
+      <c r="AA115" s="45">
         <f>AA113/AA114</f>
-        <v>45.27530272498236</v>
+        <v>43.183848120577593</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="50" t="s">
+      <c r="Z116" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="AA116" s="54">
+      <c r="AA116" s="46">
         <v>78.38</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="55" t="s">
+      <c r="Z117" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="AA117" s="56">
+      <c r="AA117" s="48">
         <f>AA115/AA116-1</f>
-        <v>-0.4223615370632513</v>
+        <v>-0.44904506097757602</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="55" t="s">
+      <c r="Z118" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="AA118" s="57" t="str">
+      <c r="AA118" s="49" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
